--- a/data/pca/factorExposure/factorExposure_2012-07-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-07-27.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +689,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001961845294091793</v>
+        <v>-0.001524150961175538</v>
       </c>
       <c r="C2">
-        <v>0.02736875906473115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02797895084322666</v>
+      </c>
+      <c r="D2">
+        <v>-0.005132386308057304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +730,27 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.004509366033799023</v>
+        <v>0.007318740842346321</v>
       </c>
       <c r="C4">
-        <v>0.08895257501337803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08400797224561737</v>
+      </c>
+      <c r="D4">
+        <v>-0.06526960757931728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +758,167 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.01079602482389781</v>
+        <v>0.01567499634847654</v>
       </c>
       <c r="C6">
-        <v>0.1149752859325827</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.1195727894127794</v>
+      </c>
+      <c r="D6">
+        <v>-0.01710525335820693</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002280312398890808</v>
+        <v>0.004571959126215747</v>
       </c>
       <c r="C7">
-        <v>0.05465159332112952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05920254828980827</v>
+      </c>
+      <c r="D7">
+        <v>-0.03380963636817443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.004567542611305177</v>
+        <v>0.005389410750604678</v>
       </c>
       <c r="C8">
-        <v>0.04143165697360646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.03686600930869487</v>
+      </c>
+      <c r="D8">
+        <v>-0.03588501759018946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003641074893299347</v>
+        <v>0.006579073285539522</v>
       </c>
       <c r="C9">
-        <v>0.07486921680048399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.07426035991220736</v>
+      </c>
+      <c r="D9">
+        <v>-0.06960547675897313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001079913097841982</v>
+        <v>0.00187472021944825</v>
       </c>
       <c r="C10">
-        <v>0.04577877026691713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04903123254087813</v>
+      </c>
+      <c r="D10">
+        <v>0.1852973525929265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003619327906238916</v>
+        <v>0.007085344514562979</v>
       </c>
       <c r="C11">
-        <v>0.08688794478868576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.08233642622244788</v>
+      </c>
+      <c r="D11">
+        <v>-0.06690209956959696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.002575385813873593</v>
+        <v>0.00518990461526079</v>
       </c>
       <c r="C12">
-        <v>0.06957728052165948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.06775616433417675</v>
+      </c>
+      <c r="D12">
+        <v>-0.04800023710665477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.006807747200938241</v>
+        <v>0.009899190363139982</v>
       </c>
       <c r="C13">
-        <v>0.07475606393218477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07054097159032452</v>
+      </c>
+      <c r="D13">
+        <v>-0.05446732507820893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0004761555550580074</v>
+        <v>0.0006442368423278121</v>
       </c>
       <c r="C14">
-        <v>0.04498443837719964</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.04349750736016859</v>
+      </c>
+      <c r="D14">
+        <v>-0.01061493366612604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.00565827992205953</v>
+        <v>0.006939729425514623</v>
       </c>
       <c r="C15">
-        <v>0.04214439902835416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.04022925171221209</v>
+      </c>
+      <c r="D15">
+        <v>-0.0197488630221842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003915279395140576</v>
+        <v>0.006062449992953514</v>
       </c>
       <c r="C16">
-        <v>0.07222307099717146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.06688653609408093</v>
+      </c>
+      <c r="D16">
+        <v>-0.05771762604533064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +926,13 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +940,13 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +954,111 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.007630745154984294</v>
+        <v>0.009718082669313019</v>
       </c>
       <c r="C20">
-        <v>0.07257900888827569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.06458629118649227</v>
+      </c>
+      <c r="D20">
+        <v>-0.04899620870276603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.007794905382915162</v>
+        <v>0.009256759273582897</v>
       </c>
       <c r="C21">
-        <v>0.02221400426210969</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01977886059561511</v>
+      </c>
+      <c r="D21">
+        <v>-0.03980069453943528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01062085329730792</v>
+        <v>-0.007781469838195849</v>
       </c>
       <c r="C22">
-        <v>0.09737959895586057</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.08499150886406169</v>
+      </c>
+      <c r="D22">
+        <v>-0.1125688438784635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01037621666128672</v>
+        <v>-0.00750615959796608</v>
       </c>
       <c r="C23">
-        <v>0.09770389692869624</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.08541239850120817</v>
+      </c>
+      <c r="D23">
+        <v>-0.1137013889120644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003472936065337518</v>
+        <v>0.006885300476094508</v>
       </c>
       <c r="C24">
-        <v>0.08003105559232809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.07865099725219757</v>
+      </c>
+      <c r="D24">
+        <v>-0.06577253703148431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.001739043920377482</v>
+        <v>0.004526584493741594</v>
       </c>
       <c r="C25">
-        <v>0.08412924676508673</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.08007860913650697</v>
+      </c>
+      <c r="D25">
+        <v>-0.06307532995914425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.002504921554818237</v>
+        <v>0.003891719497054831</v>
       </c>
       <c r="C26">
-        <v>0.03940756052503504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.03981652532617909</v>
+      </c>
+      <c r="D26">
+        <v>-0.01941259444345258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1066,139 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004316079451877662</v>
+        <v>-0.002433649594038913</v>
       </c>
       <c r="C28">
-        <v>0.09286424033285434</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.09803040623517929</v>
+      </c>
+      <c r="D28">
+        <v>0.3270880228935188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.002358175896895078</v>
+        <v>0.003577812226886445</v>
       </c>
       <c r="C29">
-        <v>0.04718837861274492</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.04747844682056692</v>
+      </c>
+      <c r="D29">
+        <v>-0.008832079952671533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.006381036325549716</v>
+        <v>0.01123310818006308</v>
       </c>
       <c r="C30">
-        <v>0.1451880453455068</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.1424224153642243</v>
+      </c>
+      <c r="D30">
+        <v>-0.1073329907750993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.004723705536276073</v>
+        <v>0.006644223497662837</v>
       </c>
       <c r="C31">
-        <v>0.04425799141101886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.04487713435093453</v>
+      </c>
+      <c r="D31">
+        <v>-0.02953964267645147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.002331414836150965</v>
+        <v>0.00405529083153592</v>
       </c>
       <c r="C32">
-        <v>0.04024682269781066</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0377017148037879</v>
+      </c>
+      <c r="D32">
+        <v>-0.01499102320269476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.006117108844285814</v>
+        <v>0.00998942804851524</v>
       </c>
       <c r="C33">
-        <v>0.09108338166392227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.09257727737142986</v>
+      </c>
+      <c r="D33">
+        <v>-0.06054838968617793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.003022442993229137</v>
+        <v>0.005580488391096491</v>
       </c>
       <c r="C34">
-        <v>0.0602234751963293</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.05995700746064483</v>
+      </c>
+      <c r="D34">
+        <v>-0.05716996129479201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004115732000905001</v>
+        <v>0.005342878472949048</v>
       </c>
       <c r="C35">
-        <v>0.04066926323532019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.0398505118645618</v>
+      </c>
+      <c r="D35">
+        <v>-0.01292788556511244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.002766170559086205</v>
+        <v>-0.001346852770446727</v>
       </c>
       <c r="C36">
-        <v>0.0237401521023333</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.02542044323937053</v>
+      </c>
+      <c r="D36">
+        <v>-0.01940559508661265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1206,69 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.007350051188490211</v>
+        <v>0.008920980604375132</v>
       </c>
       <c r="C38">
-        <v>0.03829698635318433</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.03859416587158999</v>
+      </c>
+      <c r="D38">
+        <v>-0.01087961913144913</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.004320802273078371</v>
+        <v>0.0002085782851276405</v>
       </c>
       <c r="C39">
-        <v>0.1201583126292741</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1148412984682664</v>
+      </c>
+      <c r="D39">
+        <v>-0.0831761749341116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.0003022213041038322</v>
+        <v>0.003003091003617633</v>
       </c>
       <c r="C40">
-        <v>0.0856833697479828</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08522132968444783</v>
+      </c>
+      <c r="D40">
+        <v>-0.007686192252599288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.006485364496372904</v>
+        <v>0.00808103114291402</v>
       </c>
       <c r="C41">
-        <v>0.04070437778665651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.04181272424640898</v>
+      </c>
+      <c r="D41">
+        <v>-0.04204506322962445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1276,41 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.001394739928412274</v>
+        <v>0.004567305788980262</v>
       </c>
       <c r="C43">
-        <v>0.05299295966729751</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.05391413282616593</v>
+      </c>
+      <c r="D43">
+        <v>-0.02679155516949409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.0003114448168315449</v>
+        <v>0.003045673473392096</v>
       </c>
       <c r="C44">
-        <v>0.1201684034725382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.1040267278512325</v>
+      </c>
+      <c r="D44">
+        <v>-0.06442919794062395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1318,97 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0003986703775731655</v>
+        <v>0.0009445215522670225</v>
       </c>
       <c r="C46">
-        <v>0.03540591182279366</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.03157332034662318</v>
+      </c>
+      <c r="D46">
+        <v>-0.0334199682538217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002388567190680797</v>
+        <v>0.003365209356045091</v>
       </c>
       <c r="C47">
-        <v>0.03759563533824423</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.03544016163901345</v>
+      </c>
+      <c r="D47">
+        <v>-0.01852835913315451</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.006626155428498444</v>
+        <v>0.00790815142296589</v>
       </c>
       <c r="C48">
-        <v>0.0298533460107993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.03209418264291763</v>
+      </c>
+      <c r="D48">
+        <v>-0.02730987924798037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01331403499347163</v>
+        <v>0.02078916759655214</v>
       </c>
       <c r="C49">
-        <v>0.1862526217459384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.1888884091613722</v>
+      </c>
+      <c r="D49">
+        <v>-0.009436717746585745</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.003214310487320514</v>
+        <v>0.004473679761379022</v>
       </c>
       <c r="C50">
-        <v>0.0400764066974</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.04283944874071431</v>
+      </c>
+      <c r="D50">
+        <v>-0.03827585291030145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.003359835172539393</v>
+        <v>0.004189329702523097</v>
       </c>
       <c r="C51">
-        <v>0.0308975883761828</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.02735590901319629</v>
+      </c>
+      <c r="D51">
+        <v>-0.02383790893651522</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1416,69 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.01664033459569093</v>
+        <v>0.02308658114394955</v>
       </c>
       <c r="C53">
-        <v>0.1733813262440195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.171445871699164</v>
+      </c>
+      <c r="D53">
+        <v>-0.01873928689226715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.006887078731230075</v>
+        <v>0.009582403319030847</v>
       </c>
       <c r="C54">
-        <v>0.05484264130382076</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.05754202341145789</v>
+      </c>
+      <c r="D54">
+        <v>-0.0386030922809146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.007486223551685807</v>
+        <v>0.0107538466082392</v>
       </c>
       <c r="C55">
-        <v>0.1128941140113012</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.1088129334268796</v>
+      </c>
+      <c r="D55">
+        <v>-0.03223119550517442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.01523488339340933</v>
+        <v>0.0223154036010308</v>
       </c>
       <c r="C56">
-        <v>0.1723130863490711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.1720063712868195</v>
+      </c>
+      <c r="D56">
+        <v>-0.01591592707879418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1486,545 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.01586705465940049</v>
+        <v>0.0181166623216695</v>
       </c>
       <c r="C58">
-        <v>0.1199638398480242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1052196654232756</v>
+      </c>
+      <c r="D58">
+        <v>-0.0551431183654754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.003818092995198119</v>
+        <v>0.009995997119443129</v>
       </c>
       <c r="C59">
-        <v>0.1412365684803512</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1655350717023834</v>
+      </c>
+      <c r="D59">
+        <v>0.3511520827540241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.0187732419839186</v>
+        <v>0.02767706677236525</v>
       </c>
       <c r="C60">
-        <v>0.216173266752478</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.2256482532141443</v>
+      </c>
+      <c r="D60">
+        <v>-0.020220579139537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.004340125515232916</v>
+        <v>-0.0008835374308585855</v>
       </c>
       <c r="C61">
-        <v>0.09919380488141429</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.09547734991829325</v>
+      </c>
+      <c r="D61">
+        <v>-0.06073406360233735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1532149622603614</v>
+        <v>0.1557594224104512</v>
       </c>
       <c r="C62">
-        <v>0.09831682376184035</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.1030367604858482</v>
+      </c>
+      <c r="D62">
+        <v>-0.01713524128619785</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.005261947009668104</v>
+        <v>0.006911338688077933</v>
       </c>
       <c r="C63">
-        <v>0.05554695998326534</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.05326655356837475</v>
+      </c>
+      <c r="D63">
+        <v>-0.03137715076776253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01424929794718707</v>
+        <v>0.01736550689395513</v>
       </c>
       <c r="C64">
-        <v>0.1138230593042118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.1115905893796044</v>
+      </c>
+      <c r="D64">
+        <v>-0.04966226373774766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.01449067335714579</v>
+        <v>0.01841051835162258</v>
       </c>
       <c r="C65">
-        <v>0.1239279288164389</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.1266814191232529</v>
+      </c>
+      <c r="D65">
+        <v>-0.02010685803289803</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008494088505373084</v>
+        <v>0.01483479585131572</v>
       </c>
       <c r="C66">
-        <v>0.164210536772619</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1628457533712254</v>
+      </c>
+      <c r="D66">
+        <v>-0.1167008436909773</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.01266532864860236</v>
+        <v>0.01562141521379262</v>
       </c>
       <c r="C67">
-        <v>0.07190692616708853</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07219237228820147</v>
+      </c>
+      <c r="D67">
+        <v>-0.02417485785652838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.001965314124532222</v>
+        <v>6.575027582847506e-05</v>
       </c>
       <c r="C68">
-        <v>0.07294778463029604</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.07984960039965937</v>
+      </c>
+      <c r="D68">
+        <v>0.2620420246905654</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003519815651718114</v>
+        <v>0.006286889584714774</v>
       </c>
       <c r="C69">
-        <v>0.05600342928413685</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.05349229585869845</v>
+      </c>
+      <c r="D69">
+        <v>-0.03558758862837946</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001276573896990775</v>
+        <v>0.002768100239309214</v>
       </c>
       <c r="C70">
-        <v>0.001812550343754346</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.009234743075845818</v>
+      </c>
+      <c r="D70">
+        <v>0.0002978082130208577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.002478563719488869</v>
+        <v>0.004833988529174575</v>
       </c>
       <c r="C71">
-        <v>0.07774839590646725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.08515046531398088</v>
+      </c>
+      <c r="D71">
+        <v>0.3051263057115511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.0128098970469092</v>
+        <v>0.01934488845106702</v>
       </c>
       <c r="C72">
-        <v>0.1493608267780295</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.1576757203099661</v>
+      </c>
+      <c r="D72">
+        <v>-0.008346313022340427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.02456920735237189</v>
+        <v>0.03368336495928288</v>
       </c>
       <c r="C73">
-        <v>0.2854226724959792</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.2857777249247076</v>
+      </c>
+      <c r="D73">
+        <v>-0.05645596737539151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.0004404475251517126</v>
+        <v>0.002714081927868363</v>
       </c>
       <c r="C74">
-        <v>0.1068246595220149</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.1034970046760699</v>
+      </c>
+      <c r="D74">
+        <v>-0.03241130690449496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.007803444284378164</v>
+        <v>0.01302962027998948</v>
       </c>
       <c r="C75">
-        <v>0.1225732233764997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.1178376199097137</v>
+      </c>
+      <c r="D75">
+        <v>-0.02560214253873083</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.0183314327556097</v>
+        <v>0.02346126281342214</v>
       </c>
       <c r="C76">
-        <v>0.1488984508166532</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.1448060895572278</v>
+      </c>
+      <c r="D76">
+        <v>-0.05514724265485846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.01587910157412092</v>
+        <v>0.02191581789617927</v>
       </c>
       <c r="C77">
-        <v>0.1094574448935917</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1066557990287949</v>
+      </c>
+      <c r="D77">
+        <v>-0.04891133091626573</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.01048591831333756</v>
+        <v>0.01496714966388645</v>
       </c>
       <c r="C78">
-        <v>0.0913548967887502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1016605231491613</v>
+      </c>
+      <c r="D78">
+        <v>-0.07691297341361707</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.03309042949658903</v>
+        <v>0.03959914244098459</v>
       </c>
       <c r="C79">
-        <v>0.1616219732524522</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.1564078352965908</v>
+      </c>
+      <c r="D79">
+        <v>-0.02702633638702101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.009238268767089384</v>
+        <v>0.009694343850151532</v>
       </c>
       <c r="C80">
-        <v>0.04532138755782233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.03884719687575672</v>
+      </c>
+      <c r="D80">
+        <v>-0.0240901075900773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.01215615472084666</v>
+        <v>0.01736875204567121</v>
       </c>
       <c r="C81">
-        <v>0.1345217028170803</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.1308370880706453</v>
+      </c>
+      <c r="D81">
+        <v>-0.03548208623918155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.01526927040788665</v>
+        <v>0.02102467055049462</v>
       </c>
       <c r="C82">
-        <v>0.1436279702224054</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.1364879311587457</v>
+      </c>
+      <c r="D82">
+        <v>-0.03679615665074944</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.009438680883628372</v>
+        <v>0.01200061952876466</v>
       </c>
       <c r="C83">
-        <v>0.07485225916767872</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.06571697643000238</v>
+      </c>
+      <c r="D83">
+        <v>-0.04451710558024099</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.006408858176082658</v>
+        <v>0.007210200534693759</v>
       </c>
       <c r="C84">
-        <v>0.02738074562178341</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.03466320473191157</v>
+      </c>
+      <c r="D84">
+        <v>-0.01044733846975899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.02662222425444511</v>
+        <v>0.03027642835080982</v>
       </c>
       <c r="C85">
-        <v>0.138993033334126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.1226289285748174</v>
+      </c>
+      <c r="D85">
+        <v>-0.03995304289809239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001684249376533979</v>
+        <v>0.003818300289095959</v>
       </c>
       <c r="C86">
-        <v>0.05123453562426026</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.05044448218967132</v>
+      </c>
+      <c r="D86">
+        <v>-0.01552332894648912</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008384241852533298</v>
+        <v>0.01333357241548421</v>
       </c>
       <c r="C87">
-        <v>0.1370442864827781</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1291909731371375</v>
+      </c>
+      <c r="D87">
+        <v>-0.0731338614029821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.004819022857099498</v>
+        <v>-0.002463922754717596</v>
       </c>
       <c r="C88">
-        <v>0.06904480444414729</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06368755654544776</v>
+      </c>
+      <c r="D88">
+        <v>-0.02773241020248917</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.006531515843583542</v>
+        <v>-0.001916148038569156</v>
       </c>
       <c r="C89">
-        <v>0.1145942044500049</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.1275908729705856</v>
+      </c>
+      <c r="D89">
+        <v>0.3218611724535016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002491266035597822</v>
+        <v>0.00548191619340125</v>
       </c>
       <c r="C90">
-        <v>0.1033440292174637</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.1100248549122726</v>
+      </c>
+      <c r="D90">
+        <v>0.3153777509033853</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.007668875757865659</v>
+        <v>0.01143765364437426</v>
       </c>
       <c r="C91">
-        <v>0.1036595004586045</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.09892997880587209</v>
+      </c>
+      <c r="D91">
+        <v>-0.02794327889746546</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.003434954232915118</v>
+        <v>-0.0003587041480065436</v>
       </c>
       <c r="C92">
-        <v>0.1145510060365305</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.1218119134086336</v>
+      </c>
+      <c r="D92">
+        <v>0.3274526612471043</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0001704978028081335</v>
+        <v>0.00328212877051442</v>
       </c>
       <c r="C93">
-        <v>0.09170645230101757</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.1013750011148946</v>
+      </c>
+      <c r="D93">
+        <v>0.3025393027803634</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01772921166942862</v>
+        <v>0.02278708473516827</v>
       </c>
       <c r="C94">
-        <v>0.1508821155024952</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.1351327188309603</v>
+      </c>
+      <c r="D94">
+        <v>-0.05337339619514826</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.01452934122090807</v>
+        <v>0.01831250863537697</v>
       </c>
       <c r="C95">
-        <v>0.1247248437979034</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1216256824360274</v>
+      </c>
+      <c r="D95">
+        <v>-0.06386745827921578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2032,55 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0281864199562321</v>
+        <v>0.03864227290328529</v>
       </c>
       <c r="C97">
-        <v>0.2021491056636508</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.2246907683498381</v>
+      </c>
+      <c r="D97">
+        <v>0.01151261964627016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.03147307178190523</v>
+        <v>0.04143600878110063</v>
       </c>
       <c r="C98">
-        <v>0.2731010966897937</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.2651667818714631</v>
+      </c>
+      <c r="D98">
+        <v>-0.0328872881870688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9833279311037302</v>
+        <v>0.979304824087729</v>
       </c>
       <c r="C99">
-        <v>-0.09272343779974508</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.1298236794949683</v>
+      </c>
+      <c r="D99">
+        <v>0.02585418111281126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2088,27 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.002345718139097759</v>
+        <v>0.003569422032495108</v>
       </c>
       <c r="C101">
-        <v>0.04744706837754532</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.0476640082300577</v>
+      </c>
+      <c r="D101">
+        <v>-0.009495316501487857</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2116,13 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2130,21 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
